--- a/figures/database/consistence-in-database.xlsx
+++ b/figures/database/consistence-in-database.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haochen\Desktop\pami_2017_dhp -database\figures\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IceClear\Desktop\works\DQN\pami_2017_dhp\figures\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -327,7 +327,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,7 +404,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -785,6 +785,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7563-4FE2-91A8-CB9A2D8B8337}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1065,6 +1070,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7563-4FE2-91A8-CB9A2D8B8337}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1183,7 +1193,7 @@
                     <a:effectLst/>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>HM scan-path</a:t>
+                  <a:t>HM scanpath</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="4800" cap="none" baseline="0">
                   <a:effectLst/>
@@ -1326,7 +1336,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -1403,6 +1413,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-79BB-47A0-82A5-2CF2D5F6B1F7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -1658,6 +1673,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-79BB-47A0-82A5-2CF2D5F6B1F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1944,6 +1964,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-79BB-47A0-82A5-2CF2D5F6B1F7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2339,7 +2364,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -2635,6 +2660,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AB57-465D-ABC0-F7E2C7CEF92A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2909,6 +2939,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AB57-465D-ABC0-F7E2C7CEF92A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3027,7 +3062,7 @@
                   <a:rPr lang="en-US" altLang="zh-CN" sz="4800" b="1" cap="none" baseline="0">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>HM scan-path</a:t>
+                  <a:t>HM scanpath</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -3203,7 +3238,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -3650,6 +3685,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -3917,6 +3957,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4184,6 +4229,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -4451,6 +4501,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -4718,6 +4773,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -4754,6 +4814,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-66B0-434B-802F-5A9FDB733C31}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -5003,6 +5068,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -5041,6 +5111,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-66B0-434B-802F-5A9FDB733C31}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -5290,6 +5365,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -5328,6 +5408,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-66B0-434B-802F-5A9FDB733C31}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -5577,6 +5662,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-66B0-434B-802F-5A9FDB733C31}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5889,7 +5979,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -6336,6 +6426,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -6603,6 +6698,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6870,6 +6970,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -7137,6 +7242,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -7404,6 +7514,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -7671,6 +7786,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -7939,6 +8059,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -8207,6 +8332,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-B8C9-42D1-AE37-A9300671A68A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8511,7 +8641,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
@@ -8669,6 +8799,11 @@
                 </a:innerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-59D7-42E2-887B-650F709278B7}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:delete val="1"/>
@@ -8924,6 +9059,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-59D7-42E2-887B-650F709278B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9210,6 +9350,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-59D7-42E2-887B-650F709278B7}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -9335,7 +9480,7 @@
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:rPr>
-                  <a:t>HM scan-path</a:t>
+                  <a:t>HM scanpath</a:t>
                 </a:r>
               </a:p>
               <a:p>
@@ -13325,7 +13470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BK1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
